--- a/output/1Y_P67_KFSDIV.xlsx
+++ b/output/1Y_P67_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.5985</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.6955</v>
       </c>
       <c r="C3" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D3" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E3" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="F3" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="H3" s="1">
-        <v>10071.3314</v>
+        <v>10031.1177</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10071.3314</v>
+        <v>10031.1177</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0071</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>13.3398</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E4" s="1">
-        <v>1465.5421</v>
+        <v>1462.6162</v>
       </c>
       <c r="F4" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="H4" s="1">
-        <v>19550.0381</v>
+        <v>19471.9557</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19550.0381</v>
+        <v>19471.9557</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6468</v>
+        <v>13.6741</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>198.5513</v>
+        <v>198.155</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9801.448700000001</v>
+        <v>-9801.844999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.026</v>
+        <v>-0.0279</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>12.8469</v>
       </c>
       <c r="C5" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D5" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E5" s="1">
-        <v>2215.1785</v>
+        <v>2210.7552</v>
       </c>
       <c r="F5" s="1">
-        <v>780.1151</v>
+        <v>778.5542</v>
       </c>
       <c r="H5" s="1">
-        <v>28458.1766</v>
+        <v>28344.5346</v>
       </c>
       <c r="I5" s="1">
-        <v>198.5513</v>
+        <v>198.155</v>
       </c>
       <c r="J5" s="1">
-        <v>28656.7279</v>
+        <v>28542.6895</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5429</v>
+        <v>13.57</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10022.0613</v>
+        <v>-10022.0172</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0302</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>13.129</v>
       </c>
       <c r="C6" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D6" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E6" s="1">
-        <v>2995.2936</v>
+        <v>2989.3094</v>
       </c>
       <c r="F6" s="1">
-        <v>763.353</v>
+        <v>761.8235</v>
       </c>
       <c r="H6" s="1">
-        <v>39325.2102</v>
+        <v>39168.0247</v>
       </c>
       <c r="I6" s="1">
-        <v>176.4901</v>
+        <v>176.1377</v>
       </c>
       <c r="J6" s="1">
-        <v>39501.7002</v>
+        <v>39344.1624</v>
       </c>
       <c r="K6" s="1">
-        <v>40022.0613</v>
+        <v>40022.0172</v>
       </c>
       <c r="L6" s="1">
-        <v>13.3616</v>
+        <v>13.3884</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10022.0613</v>
+        <v>-10022.0172</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0219</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>12.716</v>
       </c>
       <c r="C7" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D7" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E7" s="1">
-        <v>3758.6466</v>
+        <v>3751.133</v>
       </c>
       <c r="F7" s="1">
-        <v>788.1457</v>
+        <v>786.5649</v>
       </c>
       <c r="H7" s="1">
-        <v>47794.9504</v>
+        <v>47604.1281</v>
       </c>
       <c r="I7" s="1">
-        <v>154.4288</v>
+        <v>154.1205</v>
       </c>
       <c r="J7" s="1">
-        <v>47949.3792</v>
+        <v>47758.2486</v>
       </c>
       <c r="K7" s="1">
-        <v>50044.1225</v>
+        <v>50044.0344</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3144</v>
+        <v>13.341</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>808.7293</v>
+        <v>807.1135</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9213.332</v>
+        <v>-9214.903700000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0314</v>
+        <v>-0.0321</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>12.4613</v>
       </c>
       <c r="C8" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D8" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E8" s="1">
-        <v>4546.7924</v>
+        <v>4537.6979</v>
       </c>
       <c r="F8" s="1">
-        <v>815.0714</v>
+        <v>813.4144</v>
       </c>
       <c r="H8" s="1">
-        <v>56658.9436</v>
+        <v>56432.6264</v>
       </c>
       <c r="I8" s="1">
-        <v>941.0968</v>
+        <v>939.2169</v>
       </c>
       <c r="J8" s="1">
-        <v>57600.0405</v>
+        <v>57371.8432</v>
       </c>
       <c r="K8" s="1">
-        <v>60066.1838</v>
+        <v>60066.0517</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2107</v>
+        <v>13.2371</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10156.8495</v>
+        <v>-10156.5361</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.006</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>12.6545</v>
       </c>
       <c r="C9" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D9" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E9" s="1">
-        <v>5361.8638</v>
+        <v>5351.1123</v>
       </c>
       <c r="F9" s="1">
-        <v>802.6275000000001</v>
+        <v>800.995</v>
       </c>
       <c r="H9" s="1">
-        <v>67851.7052</v>
+        <v>67580.26760000001</v>
       </c>
       <c r="I9" s="1">
-        <v>784.2474</v>
+        <v>782.6807</v>
       </c>
       <c r="J9" s="1">
-        <v>68635.9525</v>
+        <v>68362.9483</v>
       </c>
       <c r="K9" s="1">
-        <v>70223.03320000001</v>
+        <v>70222.58779999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0968</v>
+        <v>13.123</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10156.8495</v>
+        <v>-10156.5361</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0153</v>
+        <v>0.0147</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>12.2345</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E10" s="1">
-        <v>6164.4913</v>
+        <v>6152.1073</v>
       </c>
       <c r="F10" s="1">
-        <v>830.181</v>
+        <v>828.4963</v>
       </c>
       <c r="H10" s="1">
-        <v>75419.46829999999</v>
+        <v>75117.22990000001</v>
       </c>
       <c r="I10" s="1">
-        <v>627.3979</v>
+        <v>626.1446</v>
       </c>
       <c r="J10" s="1">
-        <v>76046.8662</v>
+        <v>75743.37450000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80379.8827</v>
+        <v>80379.12390000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0392</v>
+        <v>13.0653</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1447.7032</v>
+        <v>1444.8003</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8709.1463</v>
+        <v>-8711.7358</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0329</v>
+        <v>-0.0334</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>12.1636</v>
       </c>
       <c r="C11" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D11" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E11" s="1">
-        <v>6994.6723</v>
+        <v>6980.6036</v>
       </c>
       <c r="F11" s="1">
-        <v>874.6931</v>
+        <v>872.8369</v>
       </c>
       <c r="H11" s="1">
-        <v>85080.3955</v>
+        <v>84739.641</v>
       </c>
       <c r="I11" s="1">
-        <v>1918.2516</v>
+        <v>1914.4087</v>
       </c>
       <c r="J11" s="1">
-        <v>86998.64720000001</v>
+        <v>86654.04979999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90536.7322</v>
+        <v>90535.66009999999</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9437</v>
+        <v>12.9696</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10639.4172</v>
+        <v>-10638.1362</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0111</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>11.8145</v>
       </c>
       <c r="C12" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D12" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E12" s="1">
-        <v>7869.3654</v>
+        <v>7853.4405</v>
       </c>
       <c r="F12" s="1">
-        <v>900.5389</v>
+        <v>898.6279</v>
       </c>
       <c r="H12" s="1">
-        <v>92972.6173</v>
+        <v>92599.1315</v>
       </c>
       <c r="I12" s="1">
-        <v>1278.8344</v>
+        <v>1276.2725</v>
       </c>
       <c r="J12" s="1">
-        <v>94251.45170000001</v>
+        <v>93875.40399999999</v>
       </c>
       <c r="K12" s="1">
-        <v>101176.1494</v>
+        <v>101173.7963</v>
       </c>
       <c r="L12" s="1">
-        <v>12.857</v>
+        <v>12.8827</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10639.4172</v>
+        <v>-10638.1362</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0283</v>
+        <v>-0.0287</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>11.2352</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E13" s="1">
-        <v>8769.9043</v>
+        <v>8752.068300000001</v>
       </c>
       <c r="F13" s="1">
-        <v>946.9633</v>
+        <v>944.9653</v>
       </c>
       <c r="H13" s="1">
-        <v>98531.6289</v>
+        <v>98134.3167</v>
       </c>
       <c r="I13" s="1">
-        <v>639.4172</v>
+        <v>638.1362</v>
       </c>
       <c r="J13" s="1">
-        <v>99171.0462</v>
+        <v>98772.45299999999</v>
       </c>
       <c r="K13" s="1">
-        <v>111815.5666</v>
+        <v>111811.9326</v>
       </c>
       <c r="L13" s="1">
-        <v>12.7499</v>
+        <v>12.7755</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2124.7287</v>
+        <v>2120.4289</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8514.688599999999</v>
+        <v>-8517.7073</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0487</v>
+        <v>-0.0491</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.8241</v>
       </c>
       <c r="C14" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D14" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E14" s="1">
-        <v>9716.867700000001</v>
+        <v>9697.0337</v>
       </c>
       <c r="F14" s="1">
-        <v>-9716.867700000001</v>
+        <v>-9697.0337</v>
       </c>
       <c r="H14" s="1">
-        <v>105176.3472</v>
+        <v>104751.2366</v>
       </c>
       <c r="I14" s="1">
-        <v>2124.7287</v>
+        <v>2120.4289</v>
       </c>
       <c r="J14" s="1">
-        <v>107301.0758</v>
+        <v>106871.6655</v>
       </c>
       <c r="K14" s="1">
-        <v>122454.9838</v>
+        <v>122450.0688</v>
       </c>
       <c r="L14" s="1">
-        <v>12.6023</v>
+        <v>12.6276</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>105176.3472</v>
+        <v>104751.2366</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0171</v>
+        <v>-0.0175</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.5985</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.6955</v>
       </c>
       <c r="C3" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D3" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E3" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="F3" s="1">
-        <v>724.9585</v>
+        <v>729.3539</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10071.3314</v>
+        <v>10031.1177</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10071.3314</v>
+        <v>10031.1177</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9928.668600000001</v>
+        <v>-10008.8509</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0071</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>13.3398</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E4" s="1">
-        <v>1460.3337</v>
+        <v>1463.2612</v>
       </c>
       <c r="F4" s="1">
-        <v>754.9837</v>
+        <v>747.4768</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19480.5593</v>
+        <v>19480.5423</v>
       </c>
       <c r="I4" s="1">
-        <v>71.3314</v>
+        <v>-8.850899999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>19551.8907</v>
+        <v>19471.6914</v>
       </c>
       <c r="K4" s="1">
-        <v>19928.6686</v>
+        <v>20008.8509</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6467</v>
+        <v>13.6741</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>198.5513</v>
+        <v>198.155</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9872.7801</v>
+        <v>-9792.9941</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0259</v>
+        <v>-0.0279</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>12.8469</v>
       </c>
       <c r="C5" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D5" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E5" s="1">
-        <v>2215.3174</v>
+        <v>2210.738</v>
       </c>
       <c r="F5" s="1">
-        <v>793.8531</v>
+        <v>792.2374</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28459.9608</v>
+        <v>28344.3141</v>
       </c>
       <c r="I5" s="1">
-        <v>198.5513</v>
+        <v>198.155</v>
       </c>
       <c r="J5" s="1">
-        <v>28658.5121</v>
+        <v>28542.469</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5421</v>
+        <v>13.5701</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10198.5513</v>
+        <v>-10198.155</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0302</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>13.129</v>
       </c>
       <c r="C6" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D6" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E6" s="1">
-        <v>3009.1705</v>
+        <v>3002.9754</v>
       </c>
       <c r="F6" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39507.3991</v>
+        <v>39347.0856</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39507.3991</v>
+        <v>39347.0856</v>
       </c>
       <c r="K6" s="1">
-        <v>40198.5513</v>
+        <v>40198.155</v>
       </c>
       <c r="L6" s="1">
-        <v>13.3587</v>
+        <v>13.3861</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.022</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>12.716</v>
       </c>
       <c r="C7" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D7" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E7" s="1">
-        <v>3770.8431</v>
+        <v>3763.1253</v>
       </c>
       <c r="F7" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>47950.0409</v>
+        <v>47756.3178</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47950.0409</v>
+        <v>47756.3178</v>
       </c>
       <c r="K7" s="1">
-        <v>50198.5513</v>
+        <v>50198.155</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3123</v>
+        <v>13.3395</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>812.476</v>
+        <v>810.8034</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9187.523999999999</v>
+        <v>-9189.196599999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0315</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>12.4613</v>
       </c>
       <c r="C8" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D8" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E8" s="1">
-        <v>4557.2539</v>
+        <v>4547.9622</v>
       </c>
       <c r="F8" s="1">
-        <v>867.6844</v>
+        <v>865.8132000000001</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>56789.3083</v>
+        <v>56560.2776</v>
       </c>
       <c r="I8" s="1">
-        <v>812.476</v>
+        <v>810.8034</v>
       </c>
       <c r="J8" s="1">
-        <v>57601.7843</v>
+        <v>57371.0809</v>
       </c>
       <c r="K8" s="1">
-        <v>60198.5513</v>
+        <v>60198.155</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2094</v>
+        <v>13.2363</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10812.476</v>
+        <v>-10810.8034</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.006</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>12.6545</v>
       </c>
       <c r="C9" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D9" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E9" s="1">
-        <v>5424.9384</v>
+        <v>5413.7754</v>
       </c>
       <c r="F9" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68649.8824</v>
+        <v>68371.6528</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>68649.8824</v>
+        <v>68371.6528</v>
       </c>
       <c r="K9" s="1">
-        <v>71011.0273</v>
+        <v>71008.9583</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0897</v>
+        <v>13.1163</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0155</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>12.2345</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E10" s="1">
-        <v>6215.1711</v>
+        <v>6202.4252</v>
       </c>
       <c r="F10" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>76039.51059999999</v>
+        <v>75731.6116</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76039.51059999999</v>
+        <v>75731.6116</v>
       </c>
       <c r="K10" s="1">
-        <v>81011.0273</v>
+        <v>81008.9583</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0344</v>
+        <v>13.0609</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1464.7334</v>
+        <v>1461.7194</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8535.266600000001</v>
+        <v>-8538.2806</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0332</v>
+        <v>-0.0337</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>12.1636</v>
       </c>
       <c r="C11" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D11" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E11" s="1">
-        <v>7032.5318</v>
+        <v>7018.1524</v>
       </c>
       <c r="F11" s="1">
-        <v>942.5444</v>
+        <v>940.4102</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>85540.9041</v>
+        <v>85195.45759999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1464.7334</v>
+        <v>1461.7194</v>
       </c>
       <c r="J11" s="1">
-        <v>87005.63740000001</v>
+        <v>86657.17690000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91011.0273</v>
+        <v>91008.9583</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9414</v>
+        <v>12.9677</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11464.7334</v>
+        <v>-11461.7194</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0112</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>11.8145</v>
       </c>
       <c r="C12" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D12" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E12" s="1">
-        <v>7975.0762</v>
+        <v>7958.5626</v>
       </c>
       <c r="F12" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>94221.5383</v>
+        <v>93838.6158</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>94221.5383</v>
+        <v>93838.6158</v>
       </c>
       <c r="K12" s="1">
-        <v>102475.7607</v>
+        <v>102470.6777</v>
       </c>
       <c r="L12" s="1">
-        <v>12.8495</v>
+        <v>12.8755</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0287</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>11.2352</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E13" s="1">
-        <v>8821.4938</v>
+        <v>8803.285599999999</v>
       </c>
       <c r="F13" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>99111.2469</v>
+        <v>98708.60060000001</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>99111.2469</v>
+        <v>98708.60060000001</v>
       </c>
       <c r="K13" s="1">
-        <v>112475.7607</v>
+        <v>112470.6777</v>
       </c>
       <c r="L13" s="1">
-        <v>12.7502</v>
+        <v>12.776</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2153.2706</v>
+        <v>2148.8119</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7846.7294</v>
+        <v>-7851.1881</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.049</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.8241</v>
       </c>
       <c r="C14" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D14" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E14" s="1">
-        <v>9711.545700000001</v>
+        <v>9691.566500000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9711.545700000001</v>
+        <v>-9691.566500000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>105118.7415</v>
+        <v>104692.1782</v>
       </c>
       <c r="I14" s="1">
-        <v>2153.2706</v>
+        <v>2148.8119</v>
       </c>
       <c r="J14" s="1">
-        <v>107272.0121</v>
+        <v>106840.9901</v>
       </c>
       <c r="K14" s="1">
-        <v>122475.7607</v>
+        <v>122470.6777</v>
       </c>
       <c r="L14" s="1">
-        <v>12.6114</v>
+        <v>12.6368</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>105118.7415</v>
+        <v>104692.1782</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0169</v>
+        <v>-0.0172</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2153,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
@@ -2224,16 +2224,16 @@
         <v>13.5985</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.6955</v>
       </c>
       <c r="C3" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D3" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E3" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="F3" s="1">
-        <v>728.6093</v>
+        <v>728.7089</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10071.3314</v>
+        <v>10031.1177</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10071.3314</v>
+        <v>10031.1177</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9978.668600000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0071</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>13.3398</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E4" s="1">
-        <v>1463.9845</v>
+        <v>1462.6162</v>
       </c>
       <c r="F4" s="1">
-        <v>751.2355</v>
+        <v>748.139</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19529.2607</v>
+        <v>19471.9557</v>
       </c>
       <c r="I4" s="1">
-        <v>21.3314</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19550.5921</v>
+        <v>19471.9557</v>
       </c>
       <c r="K4" s="1">
-        <v>19978.6686</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6468</v>
+        <v>13.6741</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>198.5513</v>
+        <v>198.155</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9822.7801</v>
+        <v>-9801.844999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0259</v>
+        <v>-0.0279</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>12.8469</v>
       </c>
       <c r="C5" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D5" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E5" s="1">
-        <v>2215.22</v>
+        <v>2210.7552</v>
       </c>
       <c r="F5" s="1">
-        <v>793.8531</v>
+        <v>792.2374</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>28458.7102</v>
+        <v>28344.5346</v>
       </c>
       <c r="I5" s="1">
-        <v>198.5513</v>
+        <v>198.155</v>
       </c>
       <c r="J5" s="1">
-        <v>28657.2615</v>
+        <v>28542.6895</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5427</v>
+        <v>13.57</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10198.5513</v>
+        <v>-10198.155</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0302</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>13.129</v>
       </c>
       <c r="C6" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D6" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E6" s="1">
-        <v>3009.0731</v>
+        <v>3002.9926</v>
       </c>
       <c r="F6" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39506.121</v>
+        <v>39347.3109</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39506.121</v>
+        <v>39347.3109</v>
       </c>
       <c r="K6" s="1">
-        <v>40198.5513</v>
+        <v>40198.155</v>
       </c>
       <c r="L6" s="1">
-        <v>13.3591</v>
+        <v>13.386</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.022</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>12.716</v>
       </c>
       <c r="C7" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D7" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E7" s="1">
-        <v>3770.7458</v>
+        <v>3763.1425</v>
       </c>
       <c r="F7" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>47948.803</v>
+        <v>47756.536</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47948.803</v>
+        <v>47756.536</v>
       </c>
       <c r="K7" s="1">
-        <v>50198.5513</v>
+        <v>50198.155</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3126</v>
+        <v>13.3394</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>812.4497</v>
+        <v>810.808</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9187.550300000001</v>
+        <v>-9189.191999999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0315</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>12.4613</v>
       </c>
       <c r="C8" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D8" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E8" s="1">
-        <v>4557.1566</v>
+        <v>4547.9794</v>
       </c>
       <c r="F8" s="1">
-        <v>867.6823000000001</v>
+        <v>865.8136</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>56788.0952</v>
+        <v>56560.4915</v>
       </c>
       <c r="I8" s="1">
-        <v>812.4497</v>
+        <v>810.808</v>
       </c>
       <c r="J8" s="1">
-        <v>57600.545</v>
+        <v>57371.2995</v>
       </c>
       <c r="K8" s="1">
-        <v>60198.5513</v>
+        <v>60198.155</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2097</v>
+        <v>13.2362</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10812.4497</v>
+        <v>-10810.808</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.006</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>12.6545</v>
       </c>
       <c r="C9" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D9" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E9" s="1">
-        <v>5424.8389</v>
+        <v>5413.793</v>
       </c>
       <c r="F9" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>68648.6238</v>
+        <v>68371.8746</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>68648.6238</v>
+        <v>68371.8746</v>
       </c>
       <c r="K9" s="1">
-        <v>71011.00109999999</v>
+        <v>71008.963</v>
       </c>
       <c r="L9" s="1">
-        <v>13.09</v>
+        <v>13.1163</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0155</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>12.2345</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E10" s="1">
-        <v>6215.0716</v>
+        <v>6202.4428</v>
       </c>
       <c r="F10" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>76038.2938</v>
+        <v>75731.82610000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76038.2938</v>
+        <v>75731.82610000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81011.00109999999</v>
+        <v>81008.963</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0346</v>
+        <v>13.0608</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1464.7065</v>
+        <v>1461.7241</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8535.2935</v>
+        <v>-8538.275900000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0332</v>
+        <v>-0.0337</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>12.1636</v>
       </c>
       <c r="C11" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D11" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E11" s="1">
-        <v>7032.4324</v>
+        <v>7018.17</v>
       </c>
       <c r="F11" s="1">
-        <v>942.5422</v>
+        <v>940.4106</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>85539.6943</v>
+        <v>85195.67080000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1464.7065</v>
+        <v>1461.7241</v>
       </c>
       <c r="J11" s="1">
-        <v>87004.4008</v>
+        <v>86657.395</v>
       </c>
       <c r="K11" s="1">
-        <v>91011.00109999999</v>
+        <v>91008.963</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9416</v>
+        <v>12.9676</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11464.7065</v>
+        <v>-11461.7241</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0112</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>11.8145</v>
       </c>
       <c r="C12" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D12" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E12" s="1">
-        <v>7974.9746</v>
+        <v>7958.5806</v>
       </c>
       <c r="F12" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>94220.33719999999</v>
+        <v>93838.8275</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>94220.33719999999</v>
+        <v>93838.8275</v>
       </c>
       <c r="K12" s="1">
-        <v>102475.7076</v>
+        <v>102470.6871</v>
       </c>
       <c r="L12" s="1">
-        <v>12.8497</v>
+        <v>12.8755</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0287</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>11.2352</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E13" s="1">
-        <v>8821.392099999999</v>
+        <v>8803.303599999999</v>
       </c>
       <c r="F13" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>99110.1047</v>
+        <v>98708.802</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>99110.1047</v>
+        <v>98708.802</v>
       </c>
       <c r="K13" s="1">
-        <v>112475.7076</v>
+        <v>112470.6871</v>
       </c>
       <c r="L13" s="1">
-        <v>12.7503</v>
+        <v>12.776</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2153.2431</v>
+        <v>2148.8168</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7846.7569</v>
+        <v>-7851.1832</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.049</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.8241</v>
       </c>
       <c r="C14" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D14" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E14" s="1">
-        <v>9711.444</v>
+        <v>9691.584500000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9711.444</v>
+        <v>-9691.584500000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>105117.6411</v>
+        <v>104692.3722</v>
       </c>
       <c r="I14" s="1">
-        <v>2153.2431</v>
+        <v>2148.8168</v>
       </c>
       <c r="J14" s="1">
-        <v>107270.8842</v>
+        <v>106841.189</v>
       </c>
       <c r="K14" s="1">
-        <v>122475.7076</v>
+        <v>122470.6871</v>
       </c>
       <c r="L14" s="1">
-        <v>12.6115</v>
+        <v>12.6368</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>105117.6411</v>
+        <v>104692.3722</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0169</v>
+        <v>-0.0172</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.5985</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.6955</v>
       </c>
       <c r="C3" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D3" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E3" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="F3" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10071.3314</v>
+        <v>10031.1177</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10071.3314</v>
+        <v>10031.1177</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0071</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>13.3398</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E4" s="1">
-        <v>1465.5421</v>
+        <v>1462.6162</v>
       </c>
       <c r="F4" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19550.0381</v>
+        <v>19471.9557</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19550.0381</v>
+        <v>19471.9557</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6468</v>
+        <v>13.6741</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>198.5513</v>
+        <v>198.155</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9801.448700000001</v>
+        <v>-9801.844999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.026</v>
+        <v>-0.0279</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>12.8469</v>
       </c>
       <c r="C5" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D5" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E5" s="1">
-        <v>2215.1785</v>
+        <v>2210.7552</v>
       </c>
       <c r="F5" s="1">
-        <v>793.8531</v>
+        <v>792.2374</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>28458.1766</v>
+        <v>28344.5346</v>
       </c>
       <c r="I5" s="1">
-        <v>198.5513</v>
+        <v>198.155</v>
       </c>
       <c r="J5" s="1">
-        <v>28656.7279</v>
+        <v>28542.6895</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5429</v>
+        <v>13.57</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10198.5513</v>
+        <v>-10198.155</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0302</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>13.129</v>
       </c>
       <c r="C6" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D6" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E6" s="1">
-        <v>3009.0316</v>
+        <v>3002.9926</v>
       </c>
       <c r="F6" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39505.5757</v>
+        <v>39347.3109</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39505.5757</v>
+        <v>39347.3109</v>
       </c>
       <c r="K6" s="1">
-        <v>40198.5513</v>
+        <v>40198.155</v>
       </c>
       <c r="L6" s="1">
-        <v>13.3593</v>
+        <v>13.386</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.022</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>12.716</v>
       </c>
       <c r="C7" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D7" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E7" s="1">
-        <v>3770.7042</v>
+        <v>3763.1425</v>
       </c>
       <c r="F7" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>47948.2749</v>
+        <v>47756.536</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47948.2749</v>
+        <v>47756.536</v>
       </c>
       <c r="K7" s="1">
-        <v>50198.5513</v>
+        <v>50198.155</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3128</v>
+        <v>13.3394</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>812.4385</v>
+        <v>810.808</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9187.5615</v>
+        <v>-9189.191999999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0315</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>12.4613</v>
       </c>
       <c r="C8" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D8" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E8" s="1">
-        <v>4557.115</v>
+        <v>4547.9794</v>
       </c>
       <c r="F8" s="1">
-        <v>867.6814000000001</v>
+        <v>865.8136</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>56787.5777</v>
+        <v>56560.4915</v>
       </c>
       <c r="I8" s="1">
-        <v>812.4385</v>
+        <v>810.808</v>
       </c>
       <c r="J8" s="1">
-        <v>57600.0162</v>
+        <v>57371.2995</v>
       </c>
       <c r="K8" s="1">
-        <v>60198.5513</v>
+        <v>60198.155</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2098</v>
+        <v>13.2362</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10812.4385</v>
+        <v>-10810.808</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.006</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>12.6545</v>
       </c>
       <c r="C9" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D9" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E9" s="1">
-        <v>5424.7965</v>
+        <v>5413.793</v>
       </c>
       <c r="F9" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>68648.08689999999</v>
+        <v>68371.8746</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>68648.08689999999</v>
+        <v>68371.8746</v>
       </c>
       <c r="K9" s="1">
-        <v>71010.9898</v>
+        <v>71008.963</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0901</v>
+        <v>13.1163</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0155</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>12.2345</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E10" s="1">
-        <v>6215.0292</v>
+        <v>6202.4428</v>
       </c>
       <c r="F10" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>76037.7746</v>
+        <v>75731.82610000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76037.7746</v>
+        <v>75731.82610000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81010.9898</v>
+        <v>81008.963</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0347</v>
+        <v>13.0608</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1464.695</v>
+        <v>1461.7241</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8535.305</v>
+        <v>-8538.275900000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0332</v>
+        <v>-0.0337</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>12.1636</v>
       </c>
       <c r="C11" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D11" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E11" s="1">
-        <v>7032.3899</v>
+        <v>7018.17</v>
       </c>
       <c r="F11" s="1">
-        <v>942.5413</v>
+        <v>940.4106</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>85539.17819999999</v>
+        <v>85195.67080000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1464.695</v>
+        <v>1461.7241</v>
       </c>
       <c r="J11" s="1">
-        <v>87003.8732</v>
+        <v>86657.395</v>
       </c>
       <c r="K11" s="1">
-        <v>91010.9898</v>
+        <v>91008.963</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9417</v>
+        <v>12.9676</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11464.695</v>
+        <v>-11461.7241</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0112</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>11.8145</v>
       </c>
       <c r="C12" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D12" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E12" s="1">
-        <v>7974.9312</v>
+        <v>7958.5806</v>
       </c>
       <c r="F12" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>94219.8247</v>
+        <v>93838.8275</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>94219.8247</v>
+        <v>93838.8275</v>
       </c>
       <c r="K12" s="1">
-        <v>102475.6849</v>
+        <v>102470.6871</v>
       </c>
       <c r="L12" s="1">
-        <v>12.8497</v>
+        <v>12.8755</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0287</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>11.2352</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E13" s="1">
-        <v>8821.3487</v>
+        <v>8803.303599999999</v>
       </c>
       <c r="F13" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>99109.6174</v>
+        <v>98708.802</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>99109.6174</v>
+        <v>98708.802</v>
       </c>
       <c r="K13" s="1">
-        <v>112475.6849</v>
+        <v>112470.6871</v>
       </c>
       <c r="L13" s="1">
-        <v>12.7504</v>
+        <v>12.776</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2153.2314</v>
+        <v>2148.8168</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7846.7686</v>
+        <v>-7851.1832</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.049</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.8241</v>
       </c>
       <c r="C14" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D14" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E14" s="1">
-        <v>9711.400600000001</v>
+        <v>9691.584500000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9711.400600000001</v>
+        <v>-9691.584500000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>105117.1716</v>
+        <v>104692.3722</v>
       </c>
       <c r="I14" s="1">
-        <v>2153.2314</v>
+        <v>2148.8168</v>
       </c>
       <c r="J14" s="1">
-        <v>107270.403</v>
+        <v>106841.189</v>
       </c>
       <c r="K14" s="1">
-        <v>122475.6849</v>
+        <v>122470.6871</v>
       </c>
       <c r="L14" s="1">
-        <v>12.6115</v>
+        <v>12.6368</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>105117.1716</v>
+        <v>104692.3722</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0169</v>
+        <v>-0.0172</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.5985</v>
       </c>
       <c r="C2" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D2" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.6955</v>
       </c>
       <c r="C3" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D3" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E3" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="F3" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10071.3314</v>
+        <v>10031.1177</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10071.3314</v>
+        <v>10031.1177</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0071</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>13.3398</v>
       </c>
       <c r="C4" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D4" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E4" s="1">
-        <v>1465.5421</v>
+        <v>1462.6162</v>
       </c>
       <c r="F4" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19550.0381</v>
+        <v>19471.9557</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19550.0381</v>
+        <v>19471.9557</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6468</v>
+        <v>13.6741</v>
       </c>
       <c r="M4" s="1">
         <v>0.3</v>
       </c>
       <c r="N4" s="1">
-        <v>198.5513</v>
+        <v>198.155</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9801.448700000001</v>
+        <v>-9801.844999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.026</v>
+        <v>-0.0279</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>12.8469</v>
       </c>
       <c r="C5" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D5" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E5" s="1">
-        <v>2215.1785</v>
+        <v>2210.7552</v>
       </c>
       <c r="F5" s="1">
-        <v>793.8531</v>
+        <v>792.2374</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>28458.1766</v>
+        <v>28344.5346</v>
       </c>
       <c r="I5" s="1">
-        <v>198.5513</v>
+        <v>198.155</v>
       </c>
       <c r="J5" s="1">
-        <v>28656.7279</v>
+        <v>28542.6895</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5429</v>
+        <v>13.57</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10198.5513</v>
+        <v>-10198.155</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0302</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>13.129</v>
       </c>
       <c r="C6" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D6" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E6" s="1">
-        <v>3009.0316</v>
+        <v>3002.9926</v>
       </c>
       <c r="F6" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39505.5757</v>
+        <v>39347.3109</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39505.5757</v>
+        <v>39347.3109</v>
       </c>
       <c r="K6" s="1">
-        <v>40198.5513</v>
+        <v>40198.155</v>
       </c>
       <c r="L6" s="1">
-        <v>13.3593</v>
+        <v>13.386</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.022</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>12.716</v>
       </c>
       <c r="C7" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D7" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E7" s="1">
-        <v>3770.7042</v>
+        <v>3763.1425</v>
       </c>
       <c r="F7" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>47948.2749</v>
+        <v>47756.536</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47948.2749</v>
+        <v>47756.536</v>
       </c>
       <c r="K7" s="1">
-        <v>50198.5513</v>
+        <v>50198.155</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3128</v>
+        <v>13.3394</v>
       </c>
       <c r="M7" s="1">
         <v>0.3</v>
       </c>
       <c r="N7" s="1">
-        <v>812.4385</v>
+        <v>810.808</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9187.5615</v>
+        <v>-9189.191999999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0315</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>12.4613</v>
       </c>
       <c r="C8" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D8" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E8" s="1">
-        <v>4557.115</v>
+        <v>4547.9794</v>
       </c>
       <c r="F8" s="1">
-        <v>867.6814000000001</v>
+        <v>865.8136</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>56787.5777</v>
+        <v>56560.4915</v>
       </c>
       <c r="I8" s="1">
-        <v>812.4385</v>
+        <v>810.808</v>
       </c>
       <c r="J8" s="1">
-        <v>57600.0162</v>
+        <v>57371.2995</v>
       </c>
       <c r="K8" s="1">
-        <v>60198.5513</v>
+        <v>60198.155</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2098</v>
+        <v>13.2362</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10812.4385</v>
+        <v>-10810.808</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.006</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>12.6545</v>
       </c>
       <c r="C9" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D9" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E9" s="1">
-        <v>5424.7965</v>
+        <v>5413.793</v>
       </c>
       <c r="F9" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>68648.08689999999</v>
+        <v>68371.8746</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>68648.08689999999</v>
+        <v>68371.8746</v>
       </c>
       <c r="K9" s="1">
-        <v>71010.9898</v>
+        <v>71008.963</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0901</v>
+        <v>13.1163</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0155</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>12.2345</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E10" s="1">
-        <v>6215.0292</v>
+        <v>6202.4428</v>
       </c>
       <c r="F10" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>76037.7746</v>
+        <v>75731.82610000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76037.7746</v>
+        <v>75731.82610000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81010.9898</v>
+        <v>81008.963</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0347</v>
+        <v>13.0608</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1464.695</v>
+        <v>1461.7241</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8535.305</v>
+        <v>-8538.275900000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0332</v>
+        <v>-0.0337</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>12.1636</v>
       </c>
       <c r="C11" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D11" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E11" s="1">
-        <v>7032.3899</v>
+        <v>7018.17</v>
       </c>
       <c r="F11" s="1">
-        <v>942.5413</v>
+        <v>940.4106</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>85539.17819999999</v>
+        <v>85195.67080000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1464.695</v>
+        <v>1461.7241</v>
       </c>
       <c r="J11" s="1">
-        <v>87003.8732</v>
+        <v>86657.395</v>
       </c>
       <c r="K11" s="1">
-        <v>91010.9898</v>
+        <v>91008.963</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9417</v>
+        <v>12.9676</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11464.695</v>
+        <v>-11461.7241</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0112</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>11.8145</v>
       </c>
       <c r="C12" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D12" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E12" s="1">
-        <v>7974.9312</v>
+        <v>7958.5806</v>
       </c>
       <c r="F12" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>94219.8247</v>
+        <v>93838.8275</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>94219.8247</v>
+        <v>93838.8275</v>
       </c>
       <c r="K12" s="1">
-        <v>102475.6849</v>
+        <v>102470.6871</v>
       </c>
       <c r="L12" s="1">
-        <v>12.8497</v>
+        <v>12.8755</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0287</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>11.2352</v>
       </c>
       <c r="C13" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D13" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E13" s="1">
-        <v>8821.3487</v>
+        <v>8803.303599999999</v>
       </c>
       <c r="F13" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>99109.6174</v>
+        <v>98708.802</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>99109.6174</v>
+        <v>98708.802</v>
       </c>
       <c r="K13" s="1">
-        <v>112475.6849</v>
+        <v>112470.6871</v>
       </c>
       <c r="L13" s="1">
-        <v>12.7504</v>
+        <v>12.776</v>
       </c>
       <c r="M13" s="1">
         <v>0.3</v>
       </c>
       <c r="N13" s="1">
-        <v>2153.2314</v>
+        <v>2148.8168</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7846.7686</v>
+        <v>-7851.1832</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.049</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.8241</v>
       </c>
       <c r="C14" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D14" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E14" s="1">
-        <v>9711.400600000001</v>
+        <v>9691.584500000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9711.400600000001</v>
+        <v>-9691.584500000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>105117.1716</v>
+        <v>104692.3722</v>
       </c>
       <c r="I14" s="1">
-        <v>2153.2314</v>
+        <v>2148.8168</v>
       </c>
       <c r="J14" s="1">
-        <v>107270.403</v>
+        <v>106841.189</v>
       </c>
       <c r="K14" s="1">
-        <v>122475.6849</v>
+        <v>122470.6871</v>
       </c>
       <c r="L14" s="1">
-        <v>12.6115</v>
+        <v>12.6368</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>105117.1716</v>
+        <v>104692.3722</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0169</v>
+        <v>-0.0172</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>12.6023</v>
+        <v>12.6276</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6114</v>
+        <v>12.6368</v>
       </c>
       <c r="E3" s="1">
-        <v>12.6115</v>
+        <v>12.6368</v>
       </c>
       <c r="F3" s="1">
-        <v>12.6115</v>
+        <v>12.6368</v>
       </c>
       <c r="G3" s="1">
-        <v>12.6115</v>
+        <v>12.6368</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.2231</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1653</v>
+        <v>-0.1778</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1655</v>
+        <v>-0.1782</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1656</v>
+        <v>-0.1781</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1656</v>
+        <v>-0.1781</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1656</v>
+        <v>-0.1781</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0759</v>
       </c>
       <c r="C5" s="3">
-        <v>0.076</v>
+        <v>0.0752</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0764</v>
+        <v>0.0756</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0764</v>
+        <v>0.0756</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0764</v>
+        <v>0.0756</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0764</v>
+        <v>0.0756</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-3.2084</v>
       </c>
       <c r="C6" s="4">
-        <v>-2.4438</v>
+        <v>-2.6359</v>
       </c>
       <c r="D6" s="4">
-        <v>-2.4322</v>
+        <v>-2.6252</v>
       </c>
       <c r="E6" s="4">
-        <v>-2.4328</v>
+        <v>-2.6251</v>
       </c>
       <c r="F6" s="4">
-        <v>-2.433</v>
+        <v>-2.6251</v>
       </c>
       <c r="G6" s="4">
-        <v>-2.433</v>
+        <v>-2.6251</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1914</v>
+        <v>-0.1977</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1909</v>
+        <v>-0.1971</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1909</v>
+        <v>-0.1971</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1909</v>
+        <v>-0.1971</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1909</v>
+        <v>-0.1971</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4579.7125</v>
+        <v>4570.4978</v>
       </c>
       <c r="D8" s="1">
-        <v>4629.0313</v>
+        <v>4619.4896</v>
       </c>
       <c r="E8" s="1">
-        <v>4628.9507</v>
+        <v>4619.5038</v>
       </c>
       <c r="F8" s="1">
-        <v>4628.9163</v>
+        <v>4619.5038</v>
       </c>
       <c r="G8" s="1">
-        <v>4628.9163</v>
+        <v>4619.5038</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P67_KFSDIV.xlsx
+++ b/output/1Y_P67_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5985</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.6955</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.3398</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.8469</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.129</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.716</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.4613</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.6545</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2345</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.1636</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8145</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2352</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8241</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5985</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.6955</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.3398</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.8469</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.129</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.716</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.4613</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.6545</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2345</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.1636</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8145</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2352</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8241</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5985</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.6955</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.3398</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.8469</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.129</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.716</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.4613</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.6545</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2345</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.1636</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8145</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2352</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8241</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5985</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.6955</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.3398</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.8469</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.129</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.716</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.4613</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.6545</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2345</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.1636</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8145</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2352</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8241</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5985</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.6955</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.3398</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.8469</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.129</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.716</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.4613</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.6545</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2345</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.1636</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.8145</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.2352</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.8241</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5488.8503</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8743</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8743</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8743</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
